--- a/source_files/Amino_acids.xlsx
+++ b/source_files/Amino_acids.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpkerckh\Dropbox\_Postdoc\Publications\Marie_thesis\FiguresR\FigMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpkerckh\Dropbox\_Postdoc\Publications\Marie_thesis\Kerckhof_Sakarika_et_al_2021\source_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A231405-D9A4-4717-9139-BF7DD389672F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BF4D0F-A47A-4670-8A94-A9B0F80B1A54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9060" activeTab="3" xr2:uid="{31183142-DA84-414A-858A-8DA7EA7B7503}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9060" activeTab="2" xr2:uid="{31183142-DA84-414A-858A-8DA7EA7B7503}"/>
   </bookViews>
   <sheets>
     <sheet name="fig4" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="fig4_for_R" sheetId="3" r:id="rId3"/>
     <sheet name="fig5_for_R" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateCount="1" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="48">
   <si>
     <t>MOB1·HOB7</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Quantity of MP to meet all AA requirements (g)</t>
+  </si>
+  <si>
+    <t>Tofu</t>
+  </si>
+  <si>
+    <t>Fishmeal</t>
   </si>
 </sst>
 </file>
@@ -5549,15 +5555,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C078F0D-50A3-461E-BC09-63F2E9FDF941}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
@@ -5621,8 +5627,20 @@
       <c r="U1" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="V1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
@@ -5706,8 +5724,20 @@
         <f>'fig4'!W2</f>
         <v>0.730588508616416</v>
       </c>
+      <c r="V2">
+        <v>0.20240000000000002</v>
+      </c>
+      <c r="W2">
+        <v>0.9256000000000002</v>
+      </c>
+      <c r="X2">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="Y2">
+        <v>1.2136</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>29</v>
       </c>
@@ -5791,8 +5821,20 @@
         <f>'fig4'!W3</f>
         <v>1.0997767261463804</v>
       </c>
+      <c r="V3">
+        <v>0.47073333333333334</v>
+      </c>
+      <c r="W3">
+        <v>2.2036400000000005</v>
+      </c>
+      <c r="X3">
+        <v>0.92899999999999994</v>
+      </c>
+      <c r="Y3">
+        <v>2.4864000000000006</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
@@ -5876,8 +5918,20 @@
         <f>'fig4'!W4</f>
         <v>1.3405373552960578</v>
       </c>
+      <c r="V4">
+        <v>0.41476666666666673</v>
+      </c>
+      <c r="W4">
+        <v>1.7265999999999999</v>
+      </c>
+      <c r="X4">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="Y4">
+        <v>1.08928</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -5961,8 +6015,20 @@
         <f>'fig4'!W5</f>
         <v>0.84270141817492994</v>
       </c>
+      <c r="V5">
+        <v>0.3066666666666667</v>
+      </c>
+      <c r="W5">
+        <v>1.4631600000000002</v>
+      </c>
+      <c r="X5">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="Y5">
+        <v>1.3260800000000004</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -6046,8 +6112,20 @@
         <f>'fig4'!W6</f>
         <v>0.8169155646000491</v>
       </c>
+      <c r="V6">
+        <v>0.38256666666666667</v>
+      </c>
+      <c r="W6">
+        <v>1.3278800000000002</v>
+      </c>
+      <c r="X6">
+        <v>0.81599999999999984</v>
+      </c>
+      <c r="Y6">
+        <v>1.2964800000000003</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
@@ -6131,8 +6209,20 @@
         <f>'fig4'!W7</f>
         <v>1.8321621450284304</v>
       </c>
+      <c r="V7">
+        <v>0.63786666666666669</v>
+      </c>
+      <c r="W7">
+        <v>2.8124000000000002</v>
+      </c>
+      <c r="X7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Y7">
+        <v>2.2436800000000003</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
@@ -6216,8 +6306,20 @@
         <f>'fig4'!W8</f>
         <v>0.86441851419536142</v>
       </c>
+      <c r="V8">
+        <v>0.37183333333333335</v>
+      </c>
+      <c r="W8">
+        <v>1.2317600000000002</v>
+      </c>
+      <c r="X8">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="Y8">
+        <v>1.2017600000000002</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>35</v>
       </c>
@@ -6302,7 +6404,7 @@
         <v>1.9388861639236825</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>36</v>
       </c>
@@ -6386,8 +6488,20 @@
         <f>'fig4'!W10</f>
         <v>0.88535938003580938</v>
       </c>
+      <c r="V10">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="W10">
+        <v>1.5877600000000003</v>
+      </c>
+      <c r="X10">
+        <v>0.43715640037589459</v>
+      </c>
+      <c r="Y10">
+        <v>2.9746324528301886</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>37</v>
       </c>
@@ -6470,6 +6584,18 @@
       <c r="U11" s="10">
         <f>'fig4'!W11</f>
         <v>0.89812359175973144</v>
+      </c>
+      <c r="V11">
+        <v>0.41936666666666667</v>
+      </c>
+      <c r="W11">
+        <v>1.9686800000000004</v>
+      </c>
+      <c r="X11">
+        <v>0.49345072426903197</v>
+      </c>
+      <c r="Y11">
+        <v>1.5924800000000003</v>
       </c>
     </row>
   </sheetData>
@@ -6482,7 +6608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6547E6F-2C35-4868-B8DD-B57B61090B2A}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6774,9 +6900,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6894,25 +7023,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1F167AB-D140-4642-B8D0-6C21E7D76955}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13D1290A-CDC3-486A-B78A-9FDDB0B7DCF1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6934,9 +7053,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13D1290A-CDC3-486A-B78A-9FDDB0B7DCF1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1F167AB-D140-4642-B8D0-6C21E7D76955}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>